--- a/biology/Zoologie/Bibionidae/Bibionidae.xlsx
+++ b/biology/Zoologie/Bibionidae/Bibionidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bibionidae (dénommés Bibions, mouches de la Saint-Marc) sont une famille d'insectes diptères nématocères qui compte près de 600 espèces dans le monde et un peu plus de 40 en Europe, dont 18 en France. Ce sont des mouches de taille variable, souvent poilues, aux tibias antérieurs armés d'épines ou de rangées d'éperons. Le dimorphisme sexuel est très marqué chez les Bibionidae, touchant la coloration du corps et des pattes et surtout la forme de la tête (grosse, ronde, aux yeux très grands se touchant chez les mâles, allongée, un peu aplatie, aux petits yeux largement séparés chez les femelles). Les larves vivent dans le sol en colonies, jouant un rôle important dans la décomposition de la matière végétale morte et la formation de l'humus.
 Les espèces européennes sont réparties dans 2 genres principaux, (Bibio et Dilophus). Ces insectes sont très caractéristiques et facilement reconnaissables.
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Adultes
 Fémurs antérieurs renflés, les tibias antérieurs avec des rangées d'épines (Dilophus) ou des éperons terminaux (Bibio)
@@ -551,7 +565,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les larves se développent dans des matières végétales en décomposition, dans le bois humide, la litière des forêts. Dans les cultures, quelques espèces peuvent se rencontrer occasionnellement au niveau des racines et des collets et doivent le plus souvent être considérés comme des ravageurs secondaires.
 vol stationnaire à diverses hauteurs du sol
@@ -584,9 +600,11 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon EOL                          (6 juillet 2013)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon EOL                          (6 juillet 2013) :
 sous-famille Bibioninae
 sous-famille Hesperininae
 sous-famille Pleciinae</t>
@@ -617,18 +635,54 @@
           <t>Liste de genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Animal Diversity Web                                (6 juillet 2013)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Animal Diversity Web                                (6 juillet 2013) :
 Bibio
 Bibiodes
 Bibionellus
 Dilophus
 Enicoscolus
 Penthetria
-Plecia
-Genres en Europe
-Selon Fauna Europaea                                      (6 juillet 2013)[3] :
+Plecia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bibionidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibionidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste de genres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Genres en Europe</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Fauna Europaea                                      (6 juillet 2013) :
 (entre parenthèses, nombre d'espèces européennes)
 Bibio Geoffroy, 1762 (25 espèces)
 Dilophus Meigen, 1803 (15 espèces)
@@ -636,31 +690,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Bibionidae</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Bibionidae</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Quelques espèces présentes en France</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Bibio hortulanus (Linnaeus) Bibion horticole
 Bibio johannis (Linnaeus) Bibion
